--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed2/result_data_RandomForest.xlsx
@@ -477,7 +477,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.6106</v>
+        <v>-12.2906</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.8883</v>
+        <v>-13.8451</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.007400000000001</v>
+        <v>-7.8597</v>
       </c>
     </row>
     <row r="16">
@@ -659,7 +659,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.2048</v>
+        <v>-13.99339999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -729,10 +729,10 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.8961</v>
+        <v>-13.24770000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.431199999999997</v>
+        <v>-7.679499999999994</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.119300000000004</v>
+        <v>-8.110200000000006</v>
       </c>
     </row>
     <row r="23">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.0508</v>
+        <v>-12.35140000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.487399999999996</v>
+        <v>-7.3935</v>
       </c>
     </row>
     <row r="25">
@@ -785,7 +785,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.40050000000001</v>
+        <v>-11.8042</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.6796</v>
+        <v>-12.3348</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.302900000000001</v>
+        <v>-7.980699999999998</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.552700000000002</v>
+        <v>-7.869899999999994</v>
       </c>
     </row>
     <row r="29">
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.8001</v>
+        <v>-11.02740000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.7049</v>
+        <v>-6.8609</v>
       </c>
     </row>
     <row r="37">
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-6.725999999999998</v>
+        <v>-7.1172</v>
       </c>
     </row>
     <row r="40">
@@ -995,7 +995,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.0675</v>
+        <v>-11.8805</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.185699999999998</v>
+        <v>-7.256800000000004</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.875399999999996</v>
+        <v>-7.552799999999998</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.776</v>
+        <v>-7.916300000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.156900000000002</v>
+        <v>-8.117200000000008</v>
       </c>
     </row>
     <row r="53">
@@ -1177,10 +1177,10 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-14.07129999999999</v>
+        <v>-12.3767</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.933500000000002</v>
+        <v>-8.696799999999994</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.870499999999997</v>
+        <v>-7.789500000000003</v>
       </c>
     </row>
     <row r="55">
@@ -1233,10 +1233,10 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.08139999999999</v>
+        <v>-14.04899999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.933499999999997</v>
+        <v>-7.921799999999998</v>
       </c>
     </row>
     <row r="58">
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.57979999999999</v>
+        <v>-12.553</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-11.9854</v>
+        <v>-12.6155</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.6887</v>
+        <v>-10.7644</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.716099999999998</v>
+        <v>-6.920100000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1432,7 +1432,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.180299999999995</v>
+        <v>-7.327999999999996</v>
       </c>
     </row>
     <row r="72">
@@ -1541,7 +1541,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.00490000000001</v>
+        <v>-11.6772</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.85519999999999</v>
+        <v>-13.56019999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.925699999999991</v>
+        <v>-8.064199999999994</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.165100000000001</v>
+        <v>-7.959200000000003</v>
       </c>
     </row>
     <row r="88">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.123400000000002</v>
+        <v>-8.037799999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.5788</v>
+        <v>-12.4858</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.1155</v>
+        <v>-10.15989999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.58059999999999</v>
+        <v>-12.1603</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.010600000000004</v>
+        <v>-8.298200000000001</v>
       </c>
     </row>
     <row r="102">
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-13.3049</v>
+        <v>-13.07379999999999</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
